--- a/note/SIPLIB_weekly_task_report.xlsx
+++ b/note/SIPLIB_weekly_task_report.xlsx
@@ -163,7 +163,7 @@
     <t xml:space="preserve">SUCW</t>
   </si>
   <si>
-    <t xml:space="preserve">Used Dr. Kim’s LaTeX script</t>
+    <t xml:space="preserve">Adopt Dr. Kim’s LaTeX script</t>
   </si>
   <si>
     <t xml:space="preserve">Sec3: Summary</t>
@@ -190,22 +190,22 @@
     <t xml:space="preserve">Reconstruct files into: main, models, functions, types</t>
   </si>
   <si>
-    <t xml:space="preserve">main: for generating SMPS files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">models: define JuMP models</t>
-  </si>
-  <si>
-    <t xml:space="preserve">functions: some functions used to construct JuMP object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">types: mainly for storing data</t>
+    <t xml:space="preserve">xxxx_main.jl: for generating SMPS files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xxxx_models.jl: define JuMP models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xxxx_functions.jl: some functions used to construct JuMP object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xxxx_types.jl: mainly for storing data</t>
   </si>
   <si>
     <t xml:space="preserve">Figure out DSP error</t>
   </si>
   <si>
-    <t xml:space="preserve">DSP has compatibility issue with CPLEX 12.8</t>
+    <t xml:space="preserve">CPLEX 12.8 has compatibility issue with DSP</t>
   </si>
   <si>
     <t xml:space="preserve">dynamic linker needs to be specified manually</t>
@@ -224,7 +224,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -253,11 +253,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -267,7 +262,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -276,6 +271,41 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -283,9 +313,9 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right/>
-      <top style="hair"/>
+      <left/>
+      <right style="hair"/>
+      <top/>
       <bottom style="hair"/>
       <diagonal/>
     </border>
@@ -301,20 +331,6 @@
       <right style="hair"/>
       <top style="hair"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
-      <top/>
-      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -343,7 +359,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -360,11 +376,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -376,23 +400,35 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -400,15 +436,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -435,13 +467,13 @@
   </sheetPr>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="48.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="47.56"/>
@@ -449,91 +481,96 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7"/>
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="0" t="s">
         <v>19</v>
       </c>
@@ -543,172 +580,172 @@
       <c r="D9" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
+      <c r="A10" s="14"/>
       <c r="D10" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9"/>
+      <c r="A11" s="14"/>
       <c r="D11" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
+      <c r="A12" s="14"/>
       <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
+      <c r="A13" s="14"/>
       <c r="D13" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
+      <c r="A14" s="14"/>
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9"/>
+      <c r="A15" s="14"/>
       <c r="D15" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="0" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="0" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="18"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9"/>
+      <c r="A18" s="14"/>
       <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="18" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9"/>
+      <c r="A19" s="14"/>
       <c r="C19" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9"/>
+      <c r="A20" s="14"/>
       <c r="D20" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9"/>
+      <c r="A21" s="14"/>
       <c r="D21" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9"/>
+      <c r="A22" s="14"/>
       <c r="D22" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9"/>
+      <c r="A23" s="14"/>
       <c r="D23" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9"/>
+      <c r="A24" s="14"/>
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9"/>
+      <c r="A25" s="14"/>
       <c r="C25" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="0" t="s">
         <v>54</v>
       </c>
@@ -718,46 +755,46 @@
       <c r="D26" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9"/>
+      <c r="A27" s="14"/>
       <c r="D27" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="13"/>
+      <c r="E27" s="18"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9"/>
+      <c r="A28" s="14"/>
       <c r="D28" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="13"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9"/>
+      <c r="A29" s="14"/>
       <c r="D29" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="13"/>
+      <c r="E29" s="18"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9"/>
-      <c r="B30" s="14" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="20" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="21" t="s">
         <v>64</v>
       </c>
     </row>

--- a/note/SIPLIB_weekly_task_report.xlsx
+++ b/note/SIPLIB_weekly_task_report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t xml:space="preserve">Business days</t>
   </si>
@@ -215,6 +215,39 @@
   </si>
   <si>
     <t xml:space="preserve">Apr 2 – 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run DSP for practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standalone solver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julia Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benders (fail due to SCIP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figure out DCAP error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logical constraint is wrong (open an issue on GitLab)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find bug in SmpsWriter.jl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find problem in SMKP instances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSP(dd) cannot solve whereas DSP(de) can solve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apr 9 – 14</t>
   </si>
 </sst>
 </file>
@@ -359,7 +392,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -442,6 +475,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -465,10 +502,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -797,11 +834,65 @@
       <c r="A31" s="21" t="s">
         <v>64</v>
       </c>
+      <c r="B31" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="21"/>
+      <c r="C32" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="21"/>
+      <c r="C33" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="21"/>
+      <c r="C34" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="21"/>
+      <c r="B35" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="21"/>
+      <c r="B36" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="21"/>
+      <c r="B37" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="22" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A30"/>
+    <mergeCell ref="A31:A37"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
